--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278436.4150571505</v>
+        <v>-280917.3348826094</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>239.9720343586818</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.0393552033779</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>127.0164816911412</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
@@ -1540,7 +1540,7 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>258.1105258966282</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>310.1283275182705</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104945</v>
       </c>
       <c r="T14" t="n">
-        <v>153.6328205512273</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292095</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>47.39265433116109</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>108.7288779407501</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,7 +1850,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>10.27544713559615</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>156.3904258901146</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3363911711823</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860171</v>
+        <v>133.2594259035648</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,7 +2087,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>238.1293846710405</v>
       </c>
       <c r="Y20" t="n">
-        <v>268.4399909838053</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7512320878728</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432826</v>
+        <v>77.43656365929147</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245677</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3363911711823</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>275.0274093258353</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958321</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3433,13 +3433,13 @@
         <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
         <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>99.36210032693363</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3472,7 +3472,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>144.3761107440547</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3481,13 +3481,13 @@
         <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060947</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>205.4124289181745</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3898,22 @@
         <v>82.14725995383239</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>50.93075279010745</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846426</v>
+        <v>90.95618068285779</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482634</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092332</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621587</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T43" t="n">
-        <v>164.0711673124575</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,16 +4034,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2912433677308</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>231.0452163728801</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2112.022597525282</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="C11" t="n">
-        <v>1770.252147844594</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D11" t="n">
-        <v>1439.178516497567</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E11" t="n">
-        <v>1080.582331159046</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>696.7884936291622</v>
+        <v>724.7840324589727</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9081107338822</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253116</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="U11" t="n">
-        <v>3146.820141253116</v>
+        <v>3133.376558574395</v>
       </c>
       <c r="V11" t="n">
-        <v>3146.820141253116</v>
+        <v>2829.505738490549</v>
       </c>
       <c r="W11" t="n">
-        <v>2821.243553242726</v>
+        <v>2503.929150480158</v>
       </c>
       <c r="X11" t="n">
-        <v>2474.96986224137</v>
+        <v>2157.655459478802</v>
       </c>
       <c r="Y11" t="n">
-        <v>2112.022597525282</v>
+        <v>2157.655459478802</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6005218029466</v>
+        <v>901.2692096237415</v>
       </c>
       <c r="C13" t="n">
-        <v>636.6005218029466</v>
+        <v>759.5250939555583</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029466</v>
+        <v>636.6005218029463</v>
       </c>
       <c r="E13" t="n">
         <v>515.879495480277</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="U13" t="n">
-        <v>1520.716041048447</v>
+        <v>1651.459102547703</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.223620102284</v>
+        <v>1423.96668160154</v>
       </c>
       <c r="W13" t="n">
-        <v>1030.998517325047</v>
+        <v>1423.96668160154</v>
       </c>
       <c r="X13" t="n">
-        <v>830.2010336867529</v>
+        <v>1223.169197963246</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.6005218029466</v>
+        <v>1029.56868607944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.052518175211</v>
+        <v>1824.291354772204</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1482.520905091516</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1151.447273744489</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>838.186336857347</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>454.3924993274633</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299117</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218357</v>
@@ -5285,16 +5285,16 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3087.322553172527</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2860.984143706088</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2860.984143706088</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.407555695698</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.407555695698</v>
+        <v>2187.238619488292</v>
       </c>
       <c r="Y14" t="n">
-        <v>2172.460290979609</v>
+        <v>1824.291354772204</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5361,7 +5361,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237416</v>
+        <v>689.391484033628</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555584</v>
+        <v>689.391484033628</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029463</v>
+        <v>566.4669118810157</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802769</v>
+        <v>445.7458855583461</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420902</v>
+        <v>326.0480053201594</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003743</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5461,25 +5461,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.863719075785</v>
+        <v>2029.992351064512</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.289170905035</v>
+        <v>1835.417802893761</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.378371290402</v>
+        <v>1573.507003279128</v>
       </c>
       <c r="V16" t="n">
-        <v>1511.551221855301</v>
+        <v>1346.014582332965</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.326119078064</v>
+        <v>1083.789479555728</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078064</v>
+        <v>882.9919959174345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194258</v>
+        <v>689.391484033628</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1554.55302580711</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1260.232209074495</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>976.6082106755418</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446366</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628261</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5522,7 +5522,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.380997682823</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V17" t="n">
-        <v>2758.95981054705</v>
+        <v>2902.199618800309</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.832855484733</v>
+        <v>2624.072663737991</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.00879743145</v>
+        <v>2325.248605684708</v>
       </c>
       <c r="Y17" t="n">
-        <v>1866.511165663435</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872281</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671183</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625796</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879835</v>
+        <v>389.1109578243101</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>316.8627105341967</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>223.8015741167126</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817312</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459982</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934036</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446356</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562825</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.269774201191</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682824</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>3015.380997682824</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2737.254042620507</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="X20" t="n">
-        <v>2438.429984567224</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5820,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235555</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671183</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1849.075796917491</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5972,49 +5972,49 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349357</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531251</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>323.4220704785985</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>657.241444168445</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1108.275657416854</v>
+        <v>1383.526753844413</v>
       </c>
       <c r="M23" t="n">
-        <v>1641.807562088778</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2188.586379147561</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.558850026898</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384076</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893064</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
         <v>3501.902725451031</v>
@@ -6026,7 +6026,7 @@
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
         <v>2489.641748681291</v>
@@ -6063,28 +6063,28 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775271</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574173</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782825</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634</v>
+        <v>96.06173179634007</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6184,13 +6184,13 @@
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720302</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>390.9762157434831</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>1045.699547878783</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127191</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799116</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857898</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737235</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6467,46 +6467,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,10 +6649,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,52 +6698,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711677</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383601</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442384</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6865,16 +6865,16 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
@@ -6938,31 +6938,31 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>651.0765132702854</v>
+        <v>499.5850729987474</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8117649162218</v>
+        <v>429.3203246446838</v>
       </c>
       <c r="D37" t="n">
-        <v>529.3665600777294</v>
+        <v>377.8751198061914</v>
       </c>
       <c r="E37" t="n">
-        <v>480.1249010691797</v>
+        <v>328.6334607976416</v>
       </c>
       <c r="F37" t="n">
-        <v>333.2349535712693</v>
+        <v>280.4149478735746</v>
       </c>
       <c r="G37" t="n">
-        <v>264.2035515198316</v>
+        <v>211.383545822137</v>
       </c>
       <c r="H37" t="n">
         <v>163.8377936138381</v>
@@ -7120,25 +7120,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1691.629635548996</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1568.534454692365</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1378.103022391852</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1123.418534185965</v>
       </c>
       <c r="W37" t="n">
-        <v>1084.164238994386</v>
+        <v>834.0013641490045</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963685</v>
+        <v>704.6832478248305</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.0535435266818</v>
+        <v>582.5621032551437</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
@@ -7160,58 +7160,58 @@
         <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866012</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325375</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202018</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378087</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398983</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146172</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429975</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7421,16 +7421,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170926</v>
+        <v>839.5784050866009</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630291</v>
+        <v>670.642222158694</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>619.1970173202017</v>
       </c>
       <c r="E43" t="n">
-        <v>231.307783615987</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1569.880212084554</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210197</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1026.09285700431</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673497</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431758</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.236426073489</v>
+        <v>922.5554353429973</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7628,40 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7673,10 +7673,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7685,13 +7685,13 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386226</v>
+        <v>796.9451341124659</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845591</v>
+        <v>628.008951184559</v>
       </c>
       <c r="D46" t="n">
         <v>576.5637463460668</v>
@@ -7792,16 +7792,16 @@
         <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515027</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.551646658397</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.44877978404</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151997</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647057</v>
+        <v>1002.043308938549</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>879.9221643688622</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430635</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729014</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389612</v>
+        <v>191.4948909389601</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333076</v>
+        <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883025</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383999</v>
+        <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586592</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626613</v>
+        <v>192.0103836266122</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867228</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.10139812536</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677725</v>
+        <v>92.30246558677632</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359742</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798329</v>
+        <v>105.3113487798322</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615461</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.78301484554618</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>339.8144253784344</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>122.1718867553217</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665416</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>306.6874953089242</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>21.13839585591285</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>287.0017854473905</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>27.71558344151222</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>14.6567831857995</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>116.0356701683976</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>25.89535190366966</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>1.181165721858158</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.88189596686489</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001942</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>23.36500300126643</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>115.4562244131544</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>116.4886187959515</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>297.7596397309466</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245677</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>155.95222956022</v>
       </c>
     </row>
     <row r="18">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245677</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>57.70643280170953</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.90266446652925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>980059.268429363</v>
+        <v>980059.2684293631</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>980059.2684293631</v>
+        <v>980059.268429363</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547412</v>
+        <v>348192.4439547413</v>
       </c>
       <c r="C2" t="n">
-        <v>348192.4439547415</v>
+        <v>348192.4439547413</v>
       </c>
       <c r="D2" t="n">
-        <v>348201.9346675276</v>
+        <v>348201.9346675274</v>
       </c>
       <c r="E2" t="n">
-        <v>310054.5003846147</v>
+        <v>310054.5003846143</v>
       </c>
       <c r="F2" t="n">
-        <v>310054.5003846145</v>
+        <v>310054.5003846146</v>
       </c>
       <c r="G2" t="n">
-        <v>337675.5990297784</v>
+        <v>337675.5990297785</v>
       </c>
       <c r="H2" t="n">
         <v>337675.5990297786</v>
       </c>
       <c r="I2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="J2" t="n">
         <v>348942.7521923205</v>
@@ -26341,19 +26341,19 @@
         <v>348942.7521923204</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923209</v>
       </c>
       <c r="N2" t="n">
+        <v>348942.7521923208</v>
+      </c>
+      <c r="O2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923209</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348942.7521923203</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923208</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552177</v>
+        <v>59764.55367552318</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>1.025492630495656e-10</v>
       </c>
       <c r="G3" t="n">
         <v>37580.10929487411</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
         <v>25409.43302179689</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.1092948741</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.916991388</v>
+        <v>439568.9169913874</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367438</v>
+        <v>41244.04987367443</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367438</v>
+        <v>41244.04987367432</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511662</v>
+        <v>78272.2102351166</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511662</v>
+        <v>78272.2102351166</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057461</v>
+        <v>93189.85962057463</v>
       </c>
       <c r="J4" t="n">
         <v>93063.75099226068</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226071</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="L4" t="n">
         <v>93063.7509922607</v>
@@ -26451,7 +26451,7 @@
         <v>93403.78684820628</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="O4" t="n">
         <v>93403.78684820633</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,28 +26482,28 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148585.8871473685</v>
+        <v>-148590.3007252366</v>
       </c>
       <c r="C6" t="n">
-        <v>-148585.8871473683</v>
+        <v>-148590.3007252366</v>
       </c>
       <c r="D6" t="n">
-        <v>-186280.4414312484</v>
+        <v>-186284.7991813954</v>
       </c>
       <c r="E6" t="n">
-        <v>-896998.012017519</v>
+        <v>-897226.7664399163</v>
       </c>
       <c r="F6" t="n">
-        <v>192240.9601461135</v>
+        <v>192012.2057237155</v>
       </c>
       <c r="G6" t="n">
-        <v>141304.6363745727</v>
+        <v>141238.3590030285</v>
       </c>
       <c r="H6" t="n">
-        <v>178884.7456694471</v>
+        <v>178818.4682979028</v>
       </c>
       <c r="I6" t="n">
-        <v>147194.8964400699</v>
+        <v>147194.89644007</v>
       </c>
       <c r="J6" t="n">
         <v>141091.6265034568</v>
@@ -26549,19 +26549,19 @@
         <v>166501.0595252537</v>
       </c>
       <c r="L6" t="n">
-        <v>128920.9502303794</v>
+        <v>128920.9502303795</v>
       </c>
       <c r="M6" t="n">
         <v>-29147.7319548595</v>
       </c>
       <c r="N6" t="n">
+        <v>173020.3680378645</v>
+      </c>
+      <c r="O6" t="n">
+        <v>173020.3680378642</v>
+      </c>
+      <c r="P6" t="n">
         <v>173020.3680378647</v>
-      </c>
-      <c r="O6" t="n">
-        <v>173020.3680378641</v>
-      </c>
-      <c r="P6" t="n">
-        <v>173020.3680378646</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810491</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790523</v>
+        <v>69.78465283790688</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26805,10 +26805,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790523</v>
+        <v>69.78465283790688</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
         <v>97.1145259275844</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672114</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987533</v>
+        <v>90.83829126987511</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519099</v>
+        <v>84.46220888519078</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990582</v>
+        <v>7.649035050990236</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317069</v>
+        <v>75.62456067317045</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.495589010755</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49558901075505</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075586</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.495589010755</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30153,13 +30153,13 @@
         <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>45.39291458738715</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>45.39291458738717</v>
       </c>
       <c r="T37" t="n">
         <v>97.68472022810489</v>
@@ -30201,13 +30201,13 @@
         <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="W37" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>97.68472022810489</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371131</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810492</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30618,22 +30618,22 @@
         <v>97.68472022810491</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>97.68472022810491</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810491</v>
+        <v>55.47778196371138</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30666,19 +30666,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T43" t="n">
-        <v>55.47778196371169</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X43" t="n">
         <v>97.68472022810491</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413273</v>
+        <v>0.280541317941334</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366619</v>
+        <v>2.873093772366687</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993303</v>
+        <v>10.81556915993329</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362275</v>
+        <v>23.81059368362331</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207915</v>
+        <v>35.68590767207999</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102605</v>
+        <v>44.2715240310271</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396513</v>
+        <v>49.2606006939663</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356593</v>
+        <v>50.05768871356711</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328685</v>
+        <v>47.26805598328797</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661033</v>
+        <v>40.34219219661128</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783653</v>
+        <v>30.29530624783725</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313192</v>
+        <v>17.62255356313234</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588003</v>
+        <v>6.392835282588154</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288161</v>
+        <v>1.22806961928819</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530618</v>
+        <v>0.02244330543530671</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796452</v>
+        <v>0.1501028381796488</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840258</v>
+        <v>1.449677410840292</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693926</v>
+        <v>5.168014384694048</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906903</v>
+        <v>14.18142647906936</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710525</v>
+        <v>24.23831663710583</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264621</v>
+        <v>32.59140791264699</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665835</v>
+        <v>38.03263579665924</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655606</v>
+        <v>39.03924649655698</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847023</v>
+        <v>35.71328360847108</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449734</v>
+        <v>28.66305863449802</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447542</v>
+        <v>19.16049562447587</v>
       </c>
       <c r="R9" t="n">
-        <v>9.3195428827678</v>
+        <v>9.319542882768021</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608759</v>
+        <v>2.788094384608825</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890083</v>
+        <v>0.6050197731890226</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345084</v>
+        <v>0.009875186722345317</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486815</v>
+        <v>0.1258411772486845</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811006</v>
+        <v>1.118842466811032</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078533</v>
+        <v>3.784387403078623</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481785</v>
+        <v>8.896971231481995</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489227</v>
+        <v>14.62045677489262</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477217</v>
+        <v>18.70915102477261</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908196</v>
+        <v>19.72617653908243</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115507</v>
+        <v>19.25713215115553</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875001</v>
+        <v>17.78707839875043</v>
       </c>
       <c r="P10" t="n">
-        <v>15.2199183828769</v>
+        <v>15.21991838287726</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852369</v>
+        <v>10.53748257852394</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381625</v>
+        <v>5.658276933381758</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623384</v>
+        <v>2.193068516233892</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625483</v>
+        <v>0.537685030062561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564456</v>
+        <v>0.006864064213564618</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35577,7 +35577,7 @@
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019261</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,10 +35820,10 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>252.5700158142587</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>795.4045397707665</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>312.9588877240342</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,16 +36762,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,16 +36835,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794531</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>814.7404961971433</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>476.728510248245</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>825.9229012776173</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
